--- a/Client/wwwroot/Templates/TilføjChipSkabelon.xlsx
+++ b/Client/wwwroot/Templates/TilføjChipSkabelon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rene069g\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renep\source\repos\lobsystemv2\Client\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39213B31-A931-478D-B67B-60BE108C642E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CB495-4CB9-46E3-92CA-A64645D928DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="3885" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="330" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UID</t>
+  </si>
+  <si>
+    <t>Gruppe1</t>
+  </si>
+  <si>
+    <t>Gruppe2</t>
   </si>
 </sst>
 </file>
@@ -59,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -400,20 +406,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
